--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>853760.0077581689</v>
+        <v>849241.4129684564</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30081121.17983805</v>
+        <v>30081121.17983804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7408878.579128027</v>
+        <v>7408878.579128024</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>125.0530623844895</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>83.14678469012598</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H12" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T12" t="n">
         <v>136.2340891864179</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H13" t="n">
-        <v>43.2390816275318</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I13" t="n">
-        <v>72.33078139503004</v>
+        <v>56.02796295807308</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1115464721752</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T13" t="n">
         <v>237.149349835783</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>271.6369546445109</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>78.49647776795004</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H15" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T15" t="n">
         <v>136.2340891864179</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.77169111675258</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7151947094264</v>
@@ -1785,7 +1785,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.03595981372203</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T16" t="n">
         <v>237.149349835783</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>112.9730373275481</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>268.4546433089312</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>353.4181124196729</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.65926901736315</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T18" t="n">
         <v>136.2340891864179</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.9182546946019</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H19" t="n">
-        <v>11.87692802089554</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.33078139503004</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.035959813722037</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1115464721752</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U19" t="n">
         <v>277.3346473620106</v>
@@ -2086,16 +2086,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.65926901736315</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>276.5797529068506</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>315.851882974421</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T21" t="n">
         <v>136.2340891864179</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>16.48026799076724</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.68346266699945</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1115464721752</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T22" t="n">
         <v>237.149349835783</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>298.0760857122299</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>72.82490649607688</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.65926901736315</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>95.26038016484252</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H25" t="n">
         <v>134.5413714187498</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1115464721752</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>33.39178988627238</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>288.6604137952388</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.65926901736315</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>320.6133913145797</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.577605919330512</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>22.90822976452638</v>
       </c>
       <c r="G28" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2794,13 +2794,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1362515435019</v>
+        <v>26.66943791463507</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>239.1593922151081</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1115464721752</v>
       </c>
       <c r="T31" t="n">
-        <v>237.149349835783</v>
+        <v>56.54626246398237</v>
       </c>
       <c r="U31" t="n">
         <v>277.3346473620106</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.5790560360004</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>359.5859579128389</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1362515435019</v>
+        <v>62.05057104221714</v>
       </c>
       <c r="U32" t="n">
         <v>255.6145573178477</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.1186732636387</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>58.78080059556221</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I34" t="n">
-        <v>72.33078139503004</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.1115464721752</v>
@@ -3246,7 +3246,7 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>396.9246738515922</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>9.715542297732904</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.23310562825727</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>11.22257680123456</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>7.03595981372203</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1115464721752</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.149349835783</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6145573178477</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>298.3925419185339</v>
       </c>
       <c r="X38" t="n">
-        <v>85.02110785127489</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>55.04813723046763</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>31.97577914317736</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.1115464721752</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>72.5032210567724</v>
+        <v>81.93738887576097</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T41" t="n">
         <v>210.1362515435019</v>
@@ -3799,7 +3799,7 @@
         <v>255.6145573178477</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>35.77169111675348</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H43" t="n">
         <v>134.5413714187498</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.035959813722023</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V43" t="n">
-        <v>40.91826150530368</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,22 +3979,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>12.44709389082208</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>94.92167620694615</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I46" t="n">
-        <v>72.33078139503004</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1115464721752</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>127.0097328498234</v>
       </c>
       <c r="W46" t="n">
-        <v>203.7909989574717</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>549.3534192541991</v>
+        <v>595.2911018545493</v>
       </c>
       <c r="C11" t="n">
-        <v>549.3534192541991</v>
+        <v>168.3903718678494</v>
       </c>
       <c r="D11" t="n">
-        <v>126.0607984391994</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="E11" t="n">
-        <v>126.0607984391994</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="F11" t="n">
-        <v>126.0607984391994</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G11" t="n">
-        <v>126.0607984391994</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H11" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I11" t="n">
-        <v>82.6804220222449</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J11" t="n">
-        <v>218.2468288562426</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6707399497113</v>
+        <v>429.6707399497111</v>
       </c>
       <c r="L11" t="n">
-        <v>697.9573333441459</v>
+        <v>697.9573333441458</v>
       </c>
       <c r="M11" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N11" t="n">
         <v>1310.954347754825</v>
@@ -5059,34 +5059,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P11" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R11" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S11" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T11" t="n">
-        <v>2044.455574966372</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="U11" t="n">
-        <v>1786.259052423092</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="V11" t="n">
-        <v>1786.259052423092</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="W11" t="n">
-        <v>1786.259052423092</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.539053590839</v>
+        <v>1420.476736191189</v>
       </c>
       <c r="Y11" t="n">
-        <v>969.2017835457292</v>
+        <v>1015.139466146079</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F12" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G12" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H12" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I12" t="n">
-        <v>61.80940056264826</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J12" t="n">
-        <v>139.493923619604</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K12" t="n">
-        <v>284.9693059505253</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L12" t="n">
-        <v>488.1063232094008</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M12" t="n">
-        <v>728.3031320743902</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N12" t="n">
-        <v>977.1986405409334</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O12" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P12" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q12" t="n">
         <v>1774.431386909859</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.3363613337528</v>
+        <v>738.0072880028192</v>
       </c>
       <c r="C13" t="n">
-        <v>488.3363613337528</v>
+        <v>738.0072880028192</v>
       </c>
       <c r="D13" t="n">
-        <v>325.0195884605235</v>
+        <v>738.0072880028192</v>
       </c>
       <c r="E13" t="n">
-        <v>158.811382613377</v>
+        <v>571.7990821556727</v>
       </c>
       <c r="F13" t="n">
-        <v>158.811382613377</v>
+        <v>399.9373079302331</v>
       </c>
       <c r="G13" t="n">
-        <v>158.811382613377</v>
+        <v>234.5684243853579</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1355425855672</v>
+        <v>98.66804921490356</v>
       </c>
       <c r="I13" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18197532575654</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K13" t="n">
-        <v>163.5531609411884</v>
+        <v>241.4748775894094</v>
       </c>
       <c r="L13" t="n">
-        <v>271.2602998248221</v>
+        <v>725.5709100642081</v>
       </c>
       <c r="M13" t="n">
-        <v>518.8046931488092</v>
+        <v>1246.238482122726</v>
       </c>
       <c r="N13" t="n">
-        <v>1029.493169250435</v>
+        <v>1358.894035382472</v>
       </c>
       <c r="O13" t="n">
-        <v>1507.950253869572</v>
+        <v>1837.351120001609</v>
       </c>
       <c r="P13" t="n">
-        <v>1903.821991506512</v>
+        <v>1920.466653065241</v>
       </c>
       <c r="Q13" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S13" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T13" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U13" t="n">
-        <v>1422.261398737758</v>
+        <v>1429.36842885263</v>
       </c>
       <c r="V13" t="n">
-        <v>1422.261398737758</v>
+        <v>1429.36842885263</v>
       </c>
       <c r="W13" t="n">
-        <v>1147.408994910271</v>
+        <v>1154.516025025143</v>
       </c>
       <c r="X13" t="n">
-        <v>904.8450983560764</v>
+        <v>1154.516025025143</v>
       </c>
       <c r="Y13" t="n">
-        <v>678.5023300458184</v>
+        <v>928.1732567148849</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>742.4318493563771</v>
+        <v>1148.926489492412</v>
       </c>
       <c r="C14" t="n">
-        <v>742.4318493563771</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="D14" t="n">
-        <v>742.4318493563771</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="E14" t="n">
-        <v>316.4549095042347</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="F14" t="n">
-        <v>316.4549095042347</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G14" t="n">
-        <v>42.07414723705194</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H14" t="n">
-        <v>42.07414723705194</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I14" t="n">
         <v>82.6804220222449</v>
@@ -5281,49 +5281,49 @@
         <v>218.2468288562426</v>
       </c>
       <c r="K14" t="n">
-        <v>429.6707399497109</v>
+        <v>429.6707399497115</v>
       </c>
       <c r="L14" t="n">
-        <v>697.9573333441456</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M14" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N14" t="n">
         <v>1310.954347754825</v>
       </c>
       <c r="O14" t="n">
-        <v>1600.879106339948</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P14" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2016.498708143955</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R14" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S14" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T14" t="n">
-        <v>1832.19673502344</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U14" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V14" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W14" t="n">
-        <v>1574.00021248016</v>
+        <v>1648.06422526672</v>
       </c>
       <c r="X14" t="n">
-        <v>1162.280213647907</v>
+        <v>1648.06422526672</v>
       </c>
       <c r="Y14" t="n">
-        <v>1162.280213647907</v>
+        <v>1568.774853783942</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F15" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G15" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H15" t="n">
-        <v>42.07414723705194</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I15" t="n">
-        <v>85.2667064070601</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J15" t="n">
-        <v>162.9512294640159</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K15" t="n">
-        <v>308.4266117949371</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L15" t="n">
-        <v>511.5636290538126</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M15" t="n">
-        <v>751.760437918802</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.655946385345</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O15" t="n">
-        <v>1382.264530611908</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P15" t="n">
-        <v>1558.966900987038</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R15" t="n">
         <v>1815.456240001607</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>551.4489904035187</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="C16" t="n">
-        <v>379.4764272824347</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="D16" t="n">
-        <v>379.4764272824347</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="E16" t="n">
-        <v>379.4764272824347</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="F16" t="n">
-        <v>343.3434059523815</v>
+        <v>416.4048013008967</v>
       </c>
       <c r="G16" t="n">
-        <v>177.9745224075063</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H16" t="n">
-        <v>42.07414723705194</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I16" t="n">
-        <v>42.07414723705194</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J16" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K16" t="n">
-        <v>488.7574867034313</v>
+        <v>241.4748775894094</v>
       </c>
       <c r="L16" t="n">
-        <v>596.464625587065</v>
+        <v>349.1820164730431</v>
       </c>
       <c r="M16" t="n">
-        <v>1117.132197645583</v>
+        <v>869.8495885315613</v>
       </c>
       <c r="N16" t="n">
-        <v>1229.787750905329</v>
+        <v>1380.538064633187</v>
       </c>
       <c r="O16" t="n">
-        <v>1659.323751247471</v>
+        <v>1858.995149252324</v>
       </c>
       <c r="P16" t="n">
-        <v>2055.195488884411</v>
+        <v>1942.110682315956</v>
       </c>
       <c r="Q16" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R16" t="n">
-        <v>2096.600331737726</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S16" t="n">
-        <v>2096.600331737726</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="T16" t="n">
-        <v>1857.055533923804</v>
+        <v>1702.397406174133</v>
       </c>
       <c r="U16" t="n">
-        <v>1576.91952648743</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="V16" t="n">
-        <v>1295.208059095459</v>
+        <v>1140.549931345788</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.355655267972</v>
+        <v>865.6975275183011</v>
       </c>
       <c r="X16" t="n">
-        <v>777.7917587137766</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="Y16" t="n">
-        <v>551.4489904035187</v>
+        <v>751.5833483995656</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1227.39830608901</v>
+        <v>1015.957021032259</v>
       </c>
       <c r="C17" t="n">
-        <v>1227.39830608901</v>
+        <v>744.7907146596008</v>
       </c>
       <c r="D17" t="n">
-        <v>1227.39830608901</v>
+        <v>744.7907146596008</v>
       </c>
       <c r="E17" t="n">
-        <v>801.4213662368671</v>
+        <v>744.7907146596008</v>
       </c>
       <c r="F17" t="n">
-        <v>444.4333738937631</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="G17" t="n">
-        <v>42.07414723705195</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H17" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I17" t="n">
-        <v>82.68042202224524</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J17" t="n">
-        <v>218.2468288562429</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L17" t="n">
-        <v>697.9573333441462</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M17" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N17" t="n">
         <v>1310.954347754825</v>
@@ -5533,34 +5533,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P17" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q17" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R17" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S17" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T17" t="n">
-        <v>2044.455574966372</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="U17" t="n">
-        <v>2044.455574966372</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="V17" t="n">
-        <v>2044.455574966372</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="W17" t="n">
-        <v>2044.455574966372</v>
+        <v>1435.805385323789</v>
       </c>
       <c r="X17" t="n">
-        <v>1632.735576134119</v>
+        <v>1435.805385323789</v>
       </c>
       <c r="Y17" t="n">
-        <v>1227.39830608901</v>
+        <v>1435.805385323789</v>
       </c>
     </row>
     <row r="18">
@@ -5582,25 +5582,25 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F18" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G18" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H18" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I18" t="n">
-        <v>85.2667064070601</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J18" t="n">
-        <v>162.9512294640159</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K18" t="n">
-        <v>571.4106484638131</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L18" t="n">
-        <v>774.5476657226886</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M18" t="n">
         <v>1014.744474587678</v>
@@ -5609,10 +5609,10 @@
         <v>1263.639983054221</v>
       </c>
       <c r="O18" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q18" t="n">
         <v>1774.431386909859</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.3356604677696</v>
+        <v>370.7598036551565</v>
       </c>
       <c r="C19" t="n">
-        <v>464.3630973466855</v>
+        <v>370.7598036551565</v>
       </c>
       <c r="D19" t="n">
-        <v>464.3630973466855</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="E19" t="n">
-        <v>464.3630973466855</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="F19" t="n">
-        <v>292.5013231212459</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G19" t="n">
-        <v>127.1324395763707</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H19" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I19" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J19" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K19" t="n">
-        <v>163.5531609411884</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L19" t="n">
-        <v>647.6491934159869</v>
+        <v>972.85351917823</v>
       </c>
       <c r="M19" t="n">
-        <v>761.740740703363</v>
+        <v>1086.945066465606</v>
       </c>
       <c r="N19" t="n">
-        <v>1272.429216804989</v>
+        <v>1597.633542567232</v>
       </c>
       <c r="O19" t="n">
-        <v>1507.950253869572</v>
+        <v>1820.706458442881</v>
       </c>
       <c r="P19" t="n">
-        <v>1903.821991506512</v>
+        <v>1903.821991506513</v>
       </c>
       <c r="Q19" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R19" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S19" t="n">
-        <v>1941.942203988055</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.942203988055</v>
+        <v>1864.162564038676</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.806196551681</v>
+        <v>1584.026556602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.094729159709</v>
+        <v>1302.315089210331</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.242325332222</v>
+        <v>1027.462685382844</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6784287780275</v>
+        <v>784.8987888286487</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3356604677696</v>
+        <v>558.5560205183907</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1294.626724695463</v>
+        <v>1320.075998886494</v>
       </c>
       <c r="C20" t="n">
-        <v>867.7259947087629</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="D20" t="n">
-        <v>444.4333738937631</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E20" t="n">
-        <v>444.4333738937631</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F20" t="n">
-        <v>444.4333738937631</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="G20" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H20" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I20" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J20" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562428</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L20" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M20" t="n">
         <v>1001.624145372457</v>
@@ -5776,28 +5776,28 @@
         <v>2016.498708143956</v>
       </c>
       <c r="R20" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S20" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T20" t="n">
-        <v>1832.196735023441</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U20" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V20" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W20" t="n">
-        <v>1294.626724695463</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X20" t="n">
-        <v>1294.626724695463</v>
+        <v>1725.413268931604</v>
       </c>
       <c r="Y20" t="n">
-        <v>1294.626724695463</v>
+        <v>1320.075998886494</v>
       </c>
     </row>
     <row r="21">
@@ -5819,25 +5819,25 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F21" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G21" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H21" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I21" t="n">
-        <v>61.80940056264826</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J21" t="n">
-        <v>139.493923619604</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K21" t="n">
-        <v>284.9693059505253</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L21" t="n">
-        <v>774.5476657226886</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M21" t="n">
         <v>1014.744474587678</v>
@@ -5846,10 +5846,10 @@
         <v>1263.639983054221</v>
       </c>
       <c r="O21" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q21" t="n">
         <v>1774.431386909859</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.7908626538473</v>
+        <v>456.2958206108477</v>
       </c>
       <c r="C22" t="n">
-        <v>380.144127309638</v>
+        <v>284.3232574897637</v>
       </c>
       <c r="D22" t="n">
-        <v>380.144127309638</v>
+        <v>284.3232574897637</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9359214624915</v>
+        <v>284.3232574897637</v>
       </c>
       <c r="F22" t="n">
-        <v>42.07414723705195</v>
+        <v>112.4614832643241</v>
       </c>
       <c r="G22" t="n">
-        <v>42.07414723705195</v>
+        <v>112.4614832643241</v>
       </c>
       <c r="H22" t="n">
-        <v>42.07414723705195</v>
+        <v>112.4614832643241</v>
       </c>
       <c r="I22" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J22" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K22" t="n">
-        <v>488.7574867034313</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L22" t="n">
-        <v>596.464625587065</v>
+        <v>972.85351917823</v>
       </c>
       <c r="M22" t="n">
-        <v>710.5561728744411</v>
+        <v>1086.945066465606</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.493169250435</v>
+        <v>1199.600619725352</v>
       </c>
       <c r="O22" t="n">
-        <v>1507.950253869572</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P22" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q22" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R22" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T22" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U22" t="n">
-        <v>1422.261398737758</v>
+        <v>1429.368428852629</v>
       </c>
       <c r="V22" t="n">
-        <v>1140.549931345787</v>
+        <v>1147.656961460658</v>
       </c>
       <c r="W22" t="n">
-        <v>865.6975275183001</v>
+        <v>872.8045576331713</v>
       </c>
       <c r="X22" t="n">
-        <v>623.1336309641052</v>
+        <v>872.8045576331713</v>
       </c>
       <c r="Y22" t="n">
-        <v>396.7908626538473</v>
+        <v>646.4617893229133</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1366.410688131562</v>
+        <v>1743.368619701494</v>
       </c>
       <c r="C23" t="n">
-        <v>1366.410688131562</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="D23" t="n">
-        <v>943.1180673165618</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E23" t="n">
-        <v>869.5575557043629</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F23" t="n">
-        <v>444.4333738937631</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="G23" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H23" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I23" t="n">
         <v>82.68042202224478</v>
       </c>
       <c r="J23" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L23" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441458</v>
       </c>
       <c r="M23" t="n">
         <v>1001.624145372457</v>
@@ -6013,28 +6013,28 @@
         <v>2016.498708143956</v>
       </c>
       <c r="R23" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S23" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T23" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U23" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V23" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W23" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X23" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="Y23" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F24" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G24" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H24" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I24" t="n">
-        <v>61.80940056264826</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J24" t="n">
-        <v>139.493923619604</v>
+        <v>320.4797658479855</v>
       </c>
       <c r="K24" t="n">
-        <v>284.9693059505253</v>
+        <v>465.9551481789068</v>
       </c>
       <c r="L24" t="n">
-        <v>488.1063232094008</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M24" t="n">
-        <v>728.3031320743901</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N24" t="n">
-        <v>1248.970704132908</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O24" t="n">
-        <v>1473.0507519755</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P24" t="n">
-        <v>1649.753122350631</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q24" t="n">
-        <v>1759.762107988546</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R24" t="n">
         <v>1815.456240001607</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1696917557039</v>
+        <v>1016.702722019281</v>
       </c>
       <c r="C25" t="n">
-        <v>274.19712863462</v>
+        <v>844.7301588981969</v>
       </c>
       <c r="D25" t="n">
-        <v>274.19712863462</v>
+        <v>681.4133860249676</v>
       </c>
       <c r="E25" t="n">
-        <v>274.19712863462</v>
+        <v>515.2051801778211</v>
       </c>
       <c r="F25" t="n">
-        <v>274.19712863462</v>
+        <v>343.3434059523815</v>
       </c>
       <c r="G25" t="n">
         <v>177.9745224075063</v>
       </c>
       <c r="H25" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I25" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J25" t="n">
-        <v>83.18197532575653</v>
+        <v>83.18197532575655</v>
       </c>
       <c r="K25" t="n">
-        <v>298.3194376898378</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L25" t="n">
-        <v>782.4154701646364</v>
+        <v>462.2668230414988</v>
       </c>
       <c r="M25" t="n">
-        <v>896.5070174520125</v>
+        <v>982.9343951000168</v>
       </c>
       <c r="N25" t="n">
-        <v>1407.195493553638</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O25" t="n">
-        <v>1507.950253869572</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P25" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q25" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R25" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S25" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.942203988055</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.806196551681</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.094729159709</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.242325332222</v>
+        <v>1675.775355595799</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6784287780275</v>
+        <v>1433.211459041604</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3356604677696</v>
+        <v>1206.868690731347</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.942943602798</v>
+        <v>1720.603664547605</v>
       </c>
       <c r="C26" t="n">
-        <v>756.942943602798</v>
+        <v>1293.702934560905</v>
       </c>
       <c r="D26" t="n">
-        <v>333.6503227877982</v>
+        <v>870.4103137459056</v>
       </c>
       <c r="E26" t="n">
-        <v>333.6503227877982</v>
+        <v>444.4333738937631</v>
       </c>
       <c r="F26" t="n">
-        <v>42.07414723705195</v>
+        <v>444.4333738937631</v>
       </c>
       <c r="G26" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H26" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I26" t="n">
-        <v>82.68042202224494</v>
+        <v>82.68042202224495</v>
       </c>
       <c r="J26" t="n">
         <v>218.2468288562426</v>
@@ -6244,34 +6244,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q26" t="n">
         <v>2016.498708143956</v>
       </c>
       <c r="R26" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S26" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T26" t="n">
-        <v>1832.196735023441</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U26" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V26" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W26" t="n">
-        <v>1574.00021248016</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X26" t="n">
-        <v>1162.280213647908</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="Y26" t="n">
-        <v>756.942943602798</v>
+        <v>1720.603664547605</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F27" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G27" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H27" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I27" t="n">
-        <v>61.80940056264826</v>
+        <v>61.80940056264828</v>
       </c>
       <c r="J27" t="n">
-        <v>145.4645029393633</v>
+        <v>425.9352661328917</v>
       </c>
       <c r="K27" t="n">
-        <v>290.9398852702845</v>
+        <v>571.410648463813</v>
       </c>
       <c r="L27" t="n">
-        <v>494.0769025291601</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M27" t="n">
         <v>1014.744474587678</v>
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>672.8683846727573</v>
+        <v>396.7908626538477</v>
       </c>
       <c r="C28" t="n">
-        <v>672.8683846727573</v>
+        <v>396.7908626538477</v>
       </c>
       <c r="D28" t="n">
-        <v>509.551611799528</v>
+        <v>396.7908626538477</v>
       </c>
       <c r="E28" t="n">
-        <v>343.3434059523815</v>
+        <v>230.5826568067013</v>
       </c>
       <c r="F28" t="n">
-        <v>343.3434059523815</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G28" t="n">
-        <v>177.9745224075063</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H28" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I28" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J28" t="n">
-        <v>83.18197532575653</v>
+        <v>83.18197532575655</v>
       </c>
       <c r="K28" t="n">
-        <v>289.7763357605762</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L28" t="n">
-        <v>773.8723682353748</v>
+        <v>271.2602998248221</v>
       </c>
       <c r="M28" t="n">
-        <v>1294.539940293893</v>
+        <v>670.1781905267088</v>
       </c>
       <c r="N28" t="n">
-        <v>1407.195493553638</v>
+        <v>1180.866666628335</v>
       </c>
       <c r="O28" t="n">
-        <v>1507.950253869572</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P28" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q28" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R28" t="n">
         <v>2096.600331737727</v>
@@ -6417,19 +6417,19 @@
         <v>1702.397406174133</v>
       </c>
       <c r="U28" t="n">
-        <v>1422.261398737758</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="V28" t="n">
-        <v>1422.261398737758</v>
+        <v>1140.549931345788</v>
       </c>
       <c r="W28" t="n">
-        <v>1147.408994910271</v>
+        <v>865.6975275183006</v>
       </c>
       <c r="X28" t="n">
-        <v>904.8450983560764</v>
+        <v>623.1336309641057</v>
       </c>
       <c r="Y28" t="n">
-        <v>678.5023300458184</v>
+        <v>396.7908626538477</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.1983290476517</v>
+        <v>1597.668384498443</v>
       </c>
       <c r="C29" t="n">
-        <v>467.1983290476517</v>
+        <v>1170.767654511743</v>
       </c>
       <c r="D29" t="n">
-        <v>467.1983290476517</v>
+        <v>1170.767654511743</v>
       </c>
       <c r="E29" t="n">
-        <v>467.1983290476517</v>
+        <v>744.7907146596007</v>
       </c>
       <c r="F29" t="n">
-        <v>42.07414723705195</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="G29" t="n">
-        <v>42.07414723705195</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H29" t="n">
         <v>42.07414723705195</v>
       </c>
       <c r="I29" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J29" t="n">
-        <v>218.2468288562425</v>
+        <v>218.246828856242</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6707399497112</v>
+        <v>429.6707399497108</v>
       </c>
       <c r="L29" t="n">
-        <v>697.9573333441458</v>
+        <v>697.9573333441454</v>
       </c>
       <c r="M29" t="n">
         <v>1001.624145372457</v>
@@ -6490,25 +6490,25 @@
         <v>2103.707361852597</v>
       </c>
       <c r="S29" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T29" t="n">
-        <v>1891.448521909666</v>
+        <v>2017.516748789973</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.448521909666</v>
+        <v>2017.516748789973</v>
       </c>
       <c r="V29" t="n">
-        <v>1533.959107035916</v>
+        <v>2017.516748789973</v>
       </c>
       <c r="W29" t="n">
-        <v>1533.959107035916</v>
+        <v>2017.516748789973</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.383963384291</v>
+        <v>2017.516748789973</v>
       </c>
       <c r="Y29" t="n">
-        <v>887.0466933391817</v>
+        <v>2017.516748789973</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I30" t="n">
-        <v>61.80940056264826</v>
+        <v>85.2667064070601</v>
       </c>
       <c r="J30" t="n">
-        <v>139.493923619604</v>
+        <v>320.4797658479857</v>
       </c>
       <c r="K30" t="n">
-        <v>284.9693059505253</v>
+        <v>465.9551481789069</v>
       </c>
       <c r="L30" t="n">
-        <v>488.1063232094008</v>
+        <v>669.0921654377825</v>
       </c>
       <c r="M30" t="n">
-        <v>728.3031320743901</v>
+        <v>909.2889743027719</v>
       </c>
       <c r="N30" t="n">
-        <v>977.1986405409333</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O30" t="n">
-        <v>1487.720030896814</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R30" t="n">
         <v>1815.456240001607</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>515.3159690734656</v>
+        <v>586.3252537503348</v>
       </c>
       <c r="C31" t="n">
-        <v>343.3434059523815</v>
+        <v>414.3526906292508</v>
       </c>
       <c r="D31" t="n">
-        <v>343.3434059523815</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="E31" t="n">
-        <v>343.3434059523815</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="F31" t="n">
-        <v>343.3434059523815</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="G31" t="n">
-        <v>177.9745224075063</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H31" t="n">
-        <v>42.07414723705195</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I31" t="n">
         <v>42.07414723705195</v>
       </c>
       <c r="J31" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K31" t="n">
-        <v>163.5531609411884</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L31" t="n">
-        <v>647.649193415987</v>
+        <v>688.5956499668025</v>
       </c>
       <c r="M31" t="n">
-        <v>831.5608977221171</v>
+        <v>1209.26322202532</v>
       </c>
       <c r="N31" t="n">
-        <v>1342.249373823743</v>
+        <v>1719.951698126946</v>
       </c>
       <c r="O31" t="n">
         <v>1820.70645844288</v>
@@ -6645,28 +6645,28 @@
         <v>2103.707361852597</v>
       </c>
       <c r="R31" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S31" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T31" t="n">
-        <v>1702.397406174133</v>
+        <v>1891.93179727062</v>
       </c>
       <c r="U31" t="n">
-        <v>1422.261398737758</v>
+        <v>1611.795789834246</v>
       </c>
       <c r="V31" t="n">
-        <v>1140.549931345787</v>
+        <v>1330.084322442275</v>
       </c>
       <c r="W31" t="n">
-        <v>1140.549931345787</v>
+        <v>1055.231918614788</v>
       </c>
       <c r="X31" t="n">
-        <v>897.9860347915923</v>
+        <v>812.6680220605928</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.4819377855313</v>
+        <v>586.3252537503348</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.2922865429498</v>
+        <v>1318.244437890894</v>
       </c>
       <c r="C32" t="n">
-        <v>405.2922865429498</v>
+        <v>891.3437079041942</v>
       </c>
       <c r="D32" t="n">
-        <v>405.2922865429498</v>
+        <v>468.0510870891944</v>
       </c>
       <c r="E32" t="n">
         <v>42.07414723705195</v>
@@ -6697,16 +6697,16 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I32" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J32" t="n">
-        <v>218.2468288562426</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6707399497114</v>
+        <v>429.670739949711</v>
       </c>
       <c r="L32" t="n">
-        <v>697.9573333441459</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M32" t="n">
         <v>1001.624145372457</v>
@@ -6727,25 +6727,25 @@
         <v>2103.707361852597</v>
       </c>
       <c r="S32" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T32" t="n">
-        <v>1891.448521909666</v>
+        <v>1981.778230479284</v>
       </c>
       <c r="U32" t="n">
-        <v>1633.251999366386</v>
+        <v>1723.581707936004</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.251999366386</v>
+        <v>1723.581707936004</v>
       </c>
       <c r="W32" t="n">
-        <v>1236.860649666733</v>
+        <v>1723.581707936004</v>
       </c>
       <c r="X32" t="n">
-        <v>825.1406508344799</v>
+        <v>1723.581707936004</v>
       </c>
       <c r="Y32" t="n">
-        <v>825.1406508344799</v>
+        <v>1318.244437890894</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>61.80940056264826</v>
       </c>
       <c r="J33" t="n">
-        <v>139.493923619604</v>
+        <v>425.9352661328917</v>
       </c>
       <c r="K33" t="n">
-        <v>284.9693059505253</v>
+        <v>571.410648463813</v>
       </c>
       <c r="L33" t="n">
-        <v>488.1063232094008</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M33" t="n">
-        <v>728.3031320743901</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N33" t="n">
-        <v>977.1986405409333</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O33" t="n">
         <v>1487.720030896814</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.3662003558819</v>
+        <v>738.0072880028183</v>
       </c>
       <c r="C34" t="n">
-        <v>452.3662003558819</v>
+        <v>566.0347248817343</v>
       </c>
       <c r="D34" t="n">
-        <v>452.3662003558819</v>
+        <v>402.717952008505</v>
       </c>
       <c r="E34" t="n">
-        <v>452.3662003558819</v>
+        <v>343.3434059523815</v>
       </c>
       <c r="F34" t="n">
-        <v>280.5044261304424</v>
+        <v>343.3434059523815</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1355425855672</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I34" t="n">
         <v>42.07414723705195</v>
       </c>
       <c r="J34" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K34" t="n">
-        <v>163.5531609411884</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L34" t="n">
-        <v>396.1700439321717</v>
+        <v>972.8535191782299</v>
       </c>
       <c r="M34" t="n">
-        <v>916.8376159906895</v>
+        <v>1086.945066465606</v>
       </c>
       <c r="N34" t="n">
-        <v>1029.493169250435</v>
+        <v>1558.568990931538</v>
       </c>
       <c r="O34" t="n">
-        <v>1507.950253869572</v>
+        <v>1659.323751247471</v>
       </c>
       <c r="P34" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q34" t="n">
         <v>2103.707361852597</v>
       </c>
       <c r="R34" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S34" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="U34" t="n">
-        <v>1422.261398737758</v>
+        <v>1429.368428852629</v>
       </c>
       <c r="V34" t="n">
-        <v>1140.549931345787</v>
+        <v>1429.368428852629</v>
       </c>
       <c r="W34" t="n">
-        <v>865.6975275183001</v>
+        <v>1154.516025025142</v>
       </c>
       <c r="X34" t="n">
-        <v>865.6975275183001</v>
+        <v>1154.516025025142</v>
       </c>
       <c r="Y34" t="n">
-        <v>639.3547592080422</v>
+        <v>928.173256714884</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>869.9088912152591</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="C35" t="n">
-        <v>443.0081612285592</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="D35" t="n">
-        <v>443.0081612285592</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="E35" t="n">
-        <v>42.07414723705195</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="F35" t="n">
-        <v>42.07414723705195</v>
+        <v>444.4333738937631</v>
       </c>
       <c r="G35" t="n">
         <v>42.07414723705195</v>
@@ -6934,16 +6934,16 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I35" t="n">
-        <v>82.68042202224478</v>
+        <v>82.6804220222449</v>
       </c>
       <c r="J35" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6707399497112</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L35" t="n">
-        <v>697.9573333441458</v>
+        <v>697.9573333441459</v>
       </c>
       <c r="M35" t="n">
         <v>1001.624145372457</v>
@@ -6964,25 +6964,25 @@
         <v>2103.707361852597</v>
       </c>
       <c r="S35" t="n">
-        <v>2044.455574966372</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T35" t="n">
-        <v>2044.455574966372</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="U35" t="n">
-        <v>2044.455574966372</v>
+        <v>1633.251999366386</v>
       </c>
       <c r="V35" t="n">
-        <v>1686.966160092622</v>
+        <v>1275.762584492635</v>
       </c>
       <c r="W35" t="n">
-        <v>1686.966160092622</v>
+        <v>879.371234792982</v>
       </c>
       <c r="X35" t="n">
-        <v>1275.246161260369</v>
+        <v>879.371234792982</v>
       </c>
       <c r="Y35" t="n">
-        <v>869.9088912152591</v>
+        <v>869.5575557043629</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I36" t="n">
-        <v>85.2667064070601</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J36" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K36" t="n">
-        <v>308.4266117949371</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L36" t="n">
-        <v>511.5636290538126</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M36" t="n">
-        <v>751.7604379188019</v>
+        <v>728.3031320743902</v>
       </c>
       <c r="N36" t="n">
-        <v>1263.639983054221</v>
+        <v>977.1986405409334</v>
       </c>
       <c r="O36" t="n">
-        <v>1487.720030896814</v>
+        <v>1201.278688383526</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.422401271944</v>
+        <v>1377.981058758656</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.431386909859</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.3634832313652</v>
+        <v>361.2830216914535</v>
       </c>
       <c r="C37" t="n">
-        <v>205.3909201102812</v>
+        <v>189.3104585703695</v>
       </c>
       <c r="D37" t="n">
-        <v>42.07414723705195</v>
+        <v>189.3104585703695</v>
       </c>
       <c r="E37" t="n">
-        <v>42.07414723705195</v>
+        <v>189.3104585703695</v>
       </c>
       <c r="F37" t="n">
-        <v>42.07414723705195</v>
+        <v>189.3104585703695</v>
       </c>
       <c r="G37" t="n">
-        <v>42.07414723705195</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H37" t="n">
         <v>42.07414723705195</v>
@@ -7095,25 +7095,25 @@
         <v>42.07414723705195</v>
       </c>
       <c r="J37" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K37" t="n">
-        <v>163.5531609411884</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L37" t="n">
-        <v>271.2602998248221</v>
+        <v>972.8535191782299</v>
       </c>
       <c r="M37" t="n">
-        <v>670.1781905267086</v>
+        <v>1493.521091236748</v>
       </c>
       <c r="N37" t="n">
-        <v>1180.866666628335</v>
+        <v>1719.951698126946</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.323751247471</v>
+        <v>1820.70645844288</v>
       </c>
       <c r="P37" t="n">
-        <v>2055.195488884411</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q37" t="n">
         <v>2103.707361852597</v>
@@ -7122,25 +7122,25 @@
         <v>2096.600331737727</v>
       </c>
       <c r="S37" t="n">
-        <v>1941.942203988055</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="T37" t="n">
-        <v>1702.397406174133</v>
+        <v>1857.055533923804</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.261398737758</v>
+        <v>1576.91952648743</v>
       </c>
       <c r="V37" t="n">
-        <v>1140.549931345787</v>
+        <v>1295.208059095459</v>
       </c>
       <c r="W37" t="n">
-        <v>865.6975275183001</v>
+        <v>1020.355655267972</v>
       </c>
       <c r="X37" t="n">
-        <v>623.1336309641052</v>
+        <v>777.7917587137771</v>
       </c>
       <c r="Y37" t="n">
-        <v>396.7908626538473</v>
+        <v>551.4489904035191</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>745.6434727011433</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="C38" t="n">
-        <v>745.6434727011433</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="D38" t="n">
-        <v>745.6434727011433</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="E38" t="n">
-        <v>319.6665328490009</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="F38" t="n">
-        <v>319.6665328490009</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G38" t="n">
         <v>319.6665328490009</v>
@@ -7171,13 +7171,13 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I38" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224433</v>
       </c>
       <c r="J38" t="n">
-        <v>218.2468288562426</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K38" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L38" t="n">
         <v>697.9573333441459</v>
@@ -7201,25 +7201,25 @@
         <v>2103.707361852597</v>
       </c>
       <c r="S38" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T38" t="n">
-        <v>1891.448521909666</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="U38" t="n">
-        <v>1633.251999366386</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="V38" t="n">
-        <v>1633.251999366386</v>
+        <v>1428.769637549341</v>
       </c>
       <c r="W38" t="n">
-        <v>1236.860649666733</v>
+        <v>1127.363029550822</v>
       </c>
       <c r="X38" t="n">
-        <v>1150.980742746253</v>
+        <v>1127.363029550822</v>
       </c>
       <c r="Y38" t="n">
-        <v>745.6434727011433</v>
+        <v>722.0257595057121</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.07414723705195</v>
       </c>
       <c r="I39" t="n">
-        <v>61.80940056264826</v>
+        <v>85.2667064070601</v>
       </c>
       <c r="J39" t="n">
-        <v>139.493923619604</v>
+        <v>320.4797658479857</v>
       </c>
       <c r="K39" t="n">
-        <v>284.9693059505253</v>
+        <v>465.9551481789069</v>
       </c>
       <c r="L39" t="n">
-        <v>488.1063232094008</v>
+        <v>669.0921654377825</v>
       </c>
       <c r="M39" t="n">
-        <v>728.3031320743901</v>
+        <v>909.2889743027719</v>
       </c>
       <c r="N39" t="n">
-        <v>977.1986405409333</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O39" t="n">
-        <v>1201.278688383526</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R39" t="n">
         <v>1815.456240001607</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.9676622520396</v>
+        <v>403.897892768718</v>
       </c>
       <c r="C40" t="n">
-        <v>260.9950991309556</v>
+        <v>403.897892768718</v>
       </c>
       <c r="D40" t="n">
-        <v>97.67832625772633</v>
+        <v>240.5811198954887</v>
       </c>
       <c r="E40" t="n">
-        <v>97.67832625772633</v>
+        <v>74.37291404834221</v>
       </c>
       <c r="F40" t="n">
-        <v>42.07414723705195</v>
+        <v>74.37291404834221</v>
       </c>
       <c r="G40" t="n">
-        <v>42.07414723705195</v>
+        <v>74.37291404834221</v>
       </c>
       <c r="H40" t="n">
         <v>42.07414723705195</v>
@@ -7332,22 +7332,22 @@
         <v>42.07414723705195</v>
       </c>
       <c r="J40" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K40" t="n">
-        <v>163.5531609411884</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L40" t="n">
-        <v>271.2602998248221</v>
+        <v>972.8535191782299</v>
       </c>
       <c r="M40" t="n">
-        <v>670.1781905267086</v>
+        <v>1493.521091236748</v>
       </c>
       <c r="N40" t="n">
-        <v>1180.866666628335</v>
+        <v>1871.325195504845</v>
       </c>
       <c r="O40" t="n">
-        <v>1659.323751247471</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P40" t="n">
         <v>2055.195488884411</v>
@@ -7356,28 +7356,28 @@
         <v>2103.707361852597</v>
       </c>
       <c r="R40" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S40" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T40" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.261398737758</v>
+        <v>1429.368428852629</v>
       </c>
       <c r="V40" t="n">
-        <v>1140.549931345787</v>
+        <v>1147.656961460658</v>
       </c>
       <c r="W40" t="n">
-        <v>865.6975275183001</v>
+        <v>872.8045576331708</v>
       </c>
       <c r="X40" t="n">
-        <v>623.1336309641052</v>
+        <v>630.2406610789759</v>
       </c>
       <c r="Y40" t="n">
-        <v>623.1336309641052</v>
+        <v>403.897892768718</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>816.1947304890233</v>
+        <v>804.7907987741576</v>
       </c>
       <c r="C41" t="n">
-        <v>816.1947304890233</v>
+        <v>804.7907987741576</v>
       </c>
       <c r="D41" t="n">
-        <v>392.9021096740236</v>
+        <v>804.7907987741576</v>
       </c>
       <c r="E41" t="n">
-        <v>392.9021096740236</v>
+        <v>804.7907987741576</v>
       </c>
       <c r="F41" t="n">
-        <v>319.6665328490009</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G41" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H41" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I41" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224497</v>
       </c>
       <c r="J41" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6707399497113</v>
+        <v>429.6707399497117</v>
       </c>
       <c r="L41" t="n">
-        <v>697.9573333441458</v>
+        <v>697.9573333441463</v>
       </c>
       <c r="M41" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N41" t="n">
         <v>1310.954347754825</v>
@@ -7429,34 +7429,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P41" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q41" t="n">
         <v>2016.498708143956</v>
       </c>
       <c r="R41" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S41" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T41" t="n">
-        <v>1891.448521909666</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="U41" t="n">
-        <v>1633.251999366386</v>
+        <v>1574.000212480161</v>
       </c>
       <c r="V41" t="n">
-        <v>1633.251999366386</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="W41" t="n">
-        <v>1633.251999366386</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="X41" t="n">
-        <v>1221.532000534133</v>
+        <v>804.7907987741576</v>
       </c>
       <c r="Y41" t="n">
-        <v>816.1947304890233</v>
+        <v>804.7907987741576</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F42" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G42" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H42" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I42" t="n">
-        <v>61.80940056264826</v>
+        <v>61.80940056264828</v>
       </c>
       <c r="J42" t="n">
-        <v>139.493923619604</v>
+        <v>139.4939236196041</v>
       </c>
       <c r="K42" t="n">
         <v>284.9693059505253</v>
       </c>
       <c r="L42" t="n">
-        <v>488.1063232094008</v>
+        <v>488.1063232094009</v>
       </c>
       <c r="M42" t="n">
-        <v>728.3031320743901</v>
+        <v>728.3031320743903</v>
       </c>
       <c r="N42" t="n">
-        <v>977.1986405409333</v>
+        <v>977.1986405409336</v>
       </c>
       <c r="O42" t="n">
         <v>1201.278688383526</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.3338384744056</v>
+        <v>551.4489904035196</v>
       </c>
       <c r="C43" t="n">
-        <v>679.3612753533216</v>
+        <v>379.4764272824356</v>
       </c>
       <c r="D43" t="n">
-        <v>516.0445024800923</v>
+        <v>379.4764272824356</v>
       </c>
       <c r="E43" t="n">
-        <v>349.8362966329458</v>
+        <v>379.4764272824356</v>
       </c>
       <c r="F43" t="n">
-        <v>177.9745224075063</v>
+        <v>343.3434059523815</v>
       </c>
       <c r="G43" t="n">
         <v>177.9745224075063</v>
       </c>
       <c r="H43" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I43" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J43" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575655</v>
       </c>
       <c r="K43" t="n">
-        <v>488.7574867034313</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L43" t="n">
-        <v>596.464625587065</v>
+        <v>647.6491934159872</v>
       </c>
       <c r="M43" t="n">
-        <v>710.5561728744411</v>
+        <v>1168.316765474505</v>
       </c>
       <c r="N43" t="n">
-        <v>1221.244648976067</v>
+        <v>1679.005241576131</v>
       </c>
       <c r="O43" t="n">
-        <v>1507.950253869572</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P43" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q43" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R43" t="n">
-        <v>2103.707361852597</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="S43" t="n">
-        <v>2103.707361852597</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="T43" t="n">
-        <v>1864.162564038675</v>
+        <v>1857.055533923805</v>
       </c>
       <c r="U43" t="n">
-        <v>1584.026556602301</v>
+        <v>1576.919526487431</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.694979324216</v>
+        <v>1295.208059095459</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.842575496729</v>
+        <v>1020.355655267972</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.842575496729</v>
+        <v>777.7917587137775</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.499807186471</v>
+        <v>551.4489904035196</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.1303778163044</v>
+        <v>1412.348370731911</v>
       </c>
       <c r="C44" t="n">
-        <v>869.5575557043629</v>
+        <v>1412.348370731911</v>
       </c>
       <c r="D44" t="n">
-        <v>869.5575557043629</v>
+        <v>989.0557499169115</v>
       </c>
       <c r="E44" t="n">
-        <v>869.5575557043629</v>
+        <v>563.0788100647691</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4333738937631</v>
+        <v>137.9546282541693</v>
       </c>
       <c r="G44" t="n">
-        <v>42.07414723705195</v>
+        <v>137.9546282541693</v>
       </c>
       <c r="H44" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I44" t="n">
         <v>82.68042202224478</v>
       </c>
       <c r="J44" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L44" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441463</v>
       </c>
       <c r="M44" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N44" t="n">
         <v>1310.954347754825</v>
@@ -7672,28 +7672,28 @@
         <v>2016.498708143956</v>
       </c>
       <c r="R44" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S44" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T44" t="n">
-        <v>2103.707361852597</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="U44" t="n">
-        <v>2103.707361852597</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="V44" t="n">
-        <v>2103.707361852597</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="W44" t="n">
-        <v>1707.316012152944</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="X44" t="n">
-        <v>1707.316012152944</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="Y44" t="n">
-        <v>1301.978742107834</v>
+        <v>1832.196735023441</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>886.1587934274629</v>
+        <v>597.9076715764728</v>
       </c>
       <c r="C45" t="n">
-        <v>768.6528899449677</v>
+        <v>480.4017680939776</v>
       </c>
       <c r="D45" t="n">
-        <v>664.8129314602527</v>
+        <v>376.5618096092626</v>
       </c>
       <c r="E45" t="n">
-        <v>560.1109977331899</v>
+        <v>271.8598758821998</v>
       </c>
       <c r="F45" t="n">
-        <v>466.4651674160941</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G45" t="n">
-        <v>373.4707011504816</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H45" t="n">
-        <v>330.3252690880421</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I45" t="n">
-        <v>350.0605224136385</v>
+        <v>61.80940056264828</v>
       </c>
       <c r="J45" t="n">
-        <v>427.7450454705942</v>
+        <v>425.9352661328915</v>
       </c>
       <c r="K45" t="n">
-        <v>573.2204278015155</v>
+        <v>571.4106484638128</v>
       </c>
       <c r="L45" t="n">
-        <v>776.357445060391</v>
+        <v>774.5476657226884</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.55425392538</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N45" t="n">
-        <v>1265.449762391924</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O45" t="n">
-        <v>1775.971152747804</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P45" t="n">
-        <v>1952.673523122934</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q45" t="n">
-        <v>2062.682508760849</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R45" t="n">
-        <v>2103.707361852597</v>
+        <v>1815.456240001607</v>
       </c>
       <c r="S45" t="n">
-        <v>2042.059249780422</v>
+        <v>1753.808127929432</v>
       </c>
       <c r="T45" t="n">
-        <v>1904.44905868303</v>
+        <v>1616.19793683204</v>
       </c>
       <c r="U45" t="n">
-        <v>1719.750553755087</v>
+        <v>1431.499431904097</v>
       </c>
       <c r="V45" t="n">
-        <v>1514.777414894353</v>
+        <v>1226.526293043363</v>
       </c>
       <c r="W45" t="n">
-        <v>1318.25603772757</v>
+        <v>1030.00491587658</v>
       </c>
       <c r="X45" t="n">
-        <v>1154.778691494233</v>
+        <v>866.5275696432432</v>
       </c>
       <c r="Y45" t="n">
-        <v>1015.085802847526</v>
+        <v>726.8346809965356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.9297800212724</v>
+        <v>521.8088597540299</v>
       </c>
       <c r="C46" t="n">
-        <v>745.9297800212724</v>
+        <v>349.8362966329459</v>
       </c>
       <c r="D46" t="n">
-        <v>582.6130071480432</v>
+        <v>349.8362966329459</v>
       </c>
       <c r="E46" t="n">
-        <v>416.4048013008967</v>
+        <v>349.8362966329459</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4048013008967</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0359177560215</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H46" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I46" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J46" t="n">
-        <v>83.18197532575653</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K46" t="n">
-        <v>318.6500362285148</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L46" t="n">
-        <v>802.7460687033134</v>
+        <v>717.4693504347414</v>
       </c>
       <c r="M46" t="n">
-        <v>916.8376159906895</v>
+        <v>831.5608977221176</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.493169250435</v>
+        <v>1342.249373823744</v>
       </c>
       <c r="O46" t="n">
-        <v>1507.950253869572</v>
+        <v>1820.70645844288</v>
       </c>
       <c r="P46" t="n">
         <v>1903.821991506512</v>
       </c>
       <c r="Q46" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R46" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S46" t="n">
-        <v>1941.942203988055</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.397406174133</v>
+        <v>1864.162564038676</v>
       </c>
       <c r="U46" t="n">
-        <v>1702.397406174133</v>
+        <v>1584.026556602301</v>
       </c>
       <c r="V46" t="n">
-        <v>1420.685938782161</v>
+        <v>1455.733897158035</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.836444885725</v>
+        <v>1180.881493330548</v>
       </c>
       <c r="X46" t="n">
-        <v>972.2725483315304</v>
+        <v>938.3175967763534</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.9297800212724</v>
+        <v>711.9748284660955</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>289.3346894073614</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>134.8008545824353</v>
+        <v>410.6828533041837</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>136.0897331506777</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>159.1197337211817</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>410.6828533041834</v>
+        <v>410.6828533041837</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>332.1022626527359</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>114.2270773418742</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K18" t="n">
-        <v>265.6404410796728</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9336,10 +9336,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>136.1275522713632</v>
+        <v>123.5536924845605</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>289.3346894073615</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>208.3650940568166</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>362.5943143496829</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>159.1197337211814</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.5172359514895</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.81745345587202</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>136.127552271363</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>192.9358820370471</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>410.6828533041837</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.030888201777088</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>283.3038012055844</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>127.4981563832199</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>410.6828533041836</v>
+        <v>287.7033771863743</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>159.1197337211816</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>289.3346894073616</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>93.06164078761367</v>
       </c>
       <c r="M31" t="n">
-        <v>70.52541113005449</v>
+        <v>410.6828533041836</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>289.3346894073616</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>126.1714586942925</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>410.6828533041836</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>362.5943143496826</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>265.6404410796728</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>289.3346894073612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>287.7033771863741</v>
+        <v>410.6828533041835</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>114.9242965964167</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>159.1197337211816</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>289.3346894073617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>287.7033771863741</v>
+        <v>410.6828533041835</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>267.8268192003552</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.3346894073615</v>
+        <v>289.334689407361</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>410.6828533041836</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>187.8291359369409</v>
+        <v>194.2625797259746</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>289.3346894073611</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>289.3346894073612</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>156.6635103912388</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>122.2269947956326</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>294.0066322223602</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23275,7 +23275,7 @@
         <v>398.335634390144</v>
       </c>
       <c r="H11" t="n">
-        <v>191.6696770657035</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>91.30228979121802</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.30281843695695</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>126.6986797456331</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>322.7874195767085</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>134.3714653664326</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.33078139503004</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1115464721752</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>127.1652202611048</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>154.1770793779016</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>67.45482757282082</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8164617558295</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6145573178477</v>
@@ -23794,13 +23794,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>2.346054330343122</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>122.6644433978543</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T19" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>115.847683295806</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>91.75091586950924</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>153.7725694991059</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I22" t="n">
-        <v>72.33078139503004</v>
+        <v>2.647318728030584</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>117.5737949363848</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>348.8922639575441</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>210.1362515435019</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>68.45481454458393</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.33078139503004</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.035959813722023</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>238.7120899029397</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>132.2125261972549</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>80.67050603007885</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>182.6867031056145</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>147.2349267186588</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I28" t="n">
         <v>72.33078139503004</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>398.335634390144</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8164617558295</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>183.4668136288669</v>
       </c>
       <c r="U29" t="n">
         <v>255.6145573178477</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>168.4434066288221</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,13 +24852,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.33078139503004</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>180.6030873718006</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.50028459115501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>62.13121254078214</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24934,7 +24934,7 @@
         <v>398.335634390144</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>148.0856805012848</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.145635761306323</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>105.7653231931128</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>24.79249660202879</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8164617558295</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>391.5683550469257</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>169.0312033966877</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,10 +25326,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7151947094264</v>
+        <v>152.4926179081919</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>72.33078139503004</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>94.03489428412263</v>
       </c>
       <c r="X38" t="n">
-        <v>322.5816909926553</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.0950192527175</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5413714187498</v>
+        <v>102.5655922755724</v>
       </c>
       <c r="I40" t="n">
         <v>72.33078139503004</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>348.3697189357213</v>
+        <v>338.9355511167328</v>
       </c>
       <c r="G41" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>134.3714653664317</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.33078139503004</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.03595981372203</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1115464721752</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>237.9760912127477</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>410.1846287960108</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8164617558295</v>
+        <v>179.8947855488833</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.65926901736315</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6145573178477</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.035959813722023</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>151.884619868228</v>
       </c>
       <c r="W46" t="n">
-        <v>68.31288083174036</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362705.7228510728</v>
+        <v>362705.7228510729</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362705.7228510728</v>
+        <v>362705.7228510729</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362705.7228510728</v>
+        <v>362705.7228510729</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362705.7228510729</v>
+        <v>362705.7228510728</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362705.7228510729</v>
+        <v>362705.7228510728</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362705.7228510729</v>
+        <v>362705.7228510728</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362705.7228510728</v>
+        <v>362705.7228510729</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362705.7228510728</v>
+        <v>362705.7228510729</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430328.7753885071</v>
+        <v>430328.7753885072</v>
       </c>
       <c r="C2" t="n">
         <v>430329.4787807858</v>
@@ -26325,37 +26325,37 @@
         <v>253235.6504692409</v>
       </c>
       <c r="F2" t="n">
+        <v>253235.6504692409</v>
+      </c>
+      <c r="G2" t="n">
         <v>253235.6504692408</v>
-      </c>
-      <c r="G2" t="n">
-        <v>253235.6504692407</v>
       </c>
       <c r="H2" t="n">
         <v>253235.6504692408</v>
       </c>
       <c r="I2" t="n">
-        <v>253235.6504692409</v>
+        <v>253235.6504692408</v>
       </c>
       <c r="J2" t="n">
         <v>253235.6504692408</v>
       </c>
       <c r="K2" t="n">
-        <v>253235.6504692408</v>
+        <v>253235.6504692407</v>
       </c>
       <c r="L2" t="n">
         <v>253235.6504692408</v>
       </c>
       <c r="M2" t="n">
-        <v>253235.6504692409</v>
+        <v>253235.6504692408</v>
       </c>
       <c r="N2" t="n">
-        <v>253235.6504692409</v>
+        <v>253235.6504692408</v>
       </c>
       <c r="O2" t="n">
         <v>253235.6504692408</v>
       </c>
       <c r="P2" t="n">
-        <v>253235.6504692408</v>
+        <v>253235.6504692409</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>43630.90718593417</v>
       </c>
       <c r="C3" t="n">
         <v>2668.793398452307</v>
@@ -26374,7 +26374,7 @@
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>506983.174800889</v>
+        <v>506983.1748008891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>25495.72919779318</v>
       </c>
       <c r="F4" t="n">
-        <v>25495.72919779316</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="G4" t="n">
-        <v>25495.72919779319</v>
+        <v>25495.72919779318</v>
       </c>
       <c r="H4" t="n">
-        <v>25495.72919779319</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="I4" t="n">
-        <v>25495.72919779318</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="J4" t="n">
         <v>25495.72919779318</v>
       </c>
       <c r="K4" t="n">
-        <v>25495.72919779319</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="L4" t="n">
-        <v>25495.72919779319</v>
+        <v>25495.72919779318</v>
       </c>
       <c r="M4" t="n">
-        <v>25495.72919779319</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="N4" t="n">
-        <v>25495.7291977932</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="O4" t="n">
-        <v>25495.72919779318</v>
+        <v>25495.72919779317</v>
       </c>
       <c r="P4" t="n">
         <v>25495.72919779318</v>
@@ -26478,22 +26478,22 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="F5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="G5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="H5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095521</v>
       </c>
       <c r="I5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095521</v>
       </c>
       <c r="J5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095521</v>
       </c>
       <c r="K5" t="n">
         <v>42605.1446909552</v>
@@ -26508,10 +26508,10 @@
         <v>42605.1446909552</v>
       </c>
       <c r="O5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095521</v>
       </c>
       <c r="P5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095521</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40524.78372375935</v>
+        <v>40503.10630502657</v>
       </c>
       <c r="C6" t="n">
-        <v>82299.55322515982</v>
+        <v>82277.87815106781</v>
       </c>
       <c r="D6" t="n">
-        <v>82748.85767122117</v>
+        <v>82727.1856064833</v>
       </c>
       <c r="E6" t="n">
-        <v>-321848.3982203965</v>
+        <v>-322460.3860555271</v>
       </c>
       <c r="F6" t="n">
-        <v>185134.7765804924</v>
+        <v>184522.788745362</v>
       </c>
       <c r="G6" t="n">
-        <v>185134.7765804923</v>
+        <v>184522.7887453619</v>
       </c>
       <c r="H6" t="n">
-        <v>185134.7765804925</v>
+        <v>184522.788745362</v>
       </c>
       <c r="I6" t="n">
-        <v>185134.7765804925</v>
+        <v>184522.788745362</v>
       </c>
       <c r="J6" t="n">
-        <v>185134.7765804924</v>
+        <v>184522.7887453619</v>
       </c>
       <c r="K6" t="n">
-        <v>185134.7765804924</v>
+        <v>184522.7887453619</v>
       </c>
       <c r="L6" t="n">
-        <v>185134.7765804924</v>
+        <v>184522.788745362</v>
       </c>
       <c r="M6" t="n">
-        <v>54071.70422971383</v>
+        <v>53459.7163945833</v>
       </c>
       <c r="N6" t="n">
-        <v>185134.7765804925</v>
+        <v>184522.788745362</v>
       </c>
       <c r="O6" t="n">
-        <v>185134.7765804924</v>
+        <v>184522.788745362</v>
       </c>
       <c r="P6" t="n">
-        <v>185134.7765804925</v>
+        <v>184522.788745362</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
+        <v>487.5593023300792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>487.5593023300792</v>
+      </c>
+      <c r="G3" t="n">
+        <v>487.5593023300791</v>
+      </c>
+      <c r="H3" t="n">
+        <v>487.5593023300791</v>
+      </c>
+      <c r="I3" t="n">
         <v>487.559302330079</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>487.559302330079</v>
       </c>
-      <c r="G3" t="n">
-        <v>487.5593023300789</v>
-      </c>
-      <c r="H3" t="n">
-        <v>487.5593023300789</v>
-      </c>
-      <c r="I3" t="n">
-        <v>487.5593023300789</v>
-      </c>
-      <c r="J3" t="n">
-        <v>487.5593023300789</v>
-      </c>
       <c r="K3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
       <c r="L3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
       <c r="M3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
       <c r="N3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
       <c r="O3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
       <c r="P3" t="n">
-        <v>487.5593023300789</v>
+        <v>487.559302330079</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="F4" t="n">
-        <v>525.9268404631492</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="G4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="H4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="I4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="J4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="K4" t="n">
         <v>525.9268404631493</v>
@@ -26828,10 +26828,10 @@
         <v>525.9268404631493</v>
       </c>
       <c r="O4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="P4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>3.761692542679064</v>
       </c>
       <c r="E3" t="n">
-        <v>435.5883543241471</v>
+        <v>435.5883543241472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I11" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J11" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K11" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L11" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M11" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N11" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O11" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P11" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S11" t="n">
-        <v>44.66435216822785</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T11" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U11" t="n">
         <v>0.1568029917041459</v>
@@ -31837,43 +31837,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J12" t="n">
-        <v>99.08032954237956</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K12" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L12" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M12" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N12" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O12" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P12" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R12" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S12" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8792052992837489</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.816934388177337</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I13" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J13" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K13" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L13" t="n">
         <v>130.7138496771494</v>
@@ -31934,25 +31934,25 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O13" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P13" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R13" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S13" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T13" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I14" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J14" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K14" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L14" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M14" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N14" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O14" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P14" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S14" t="n">
-        <v>44.66435216822785</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T14" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U14" t="n">
         <v>0.1568029917041459</v>
@@ -32074,43 +32074,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J15" t="n">
-        <v>99.08032954237956</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K15" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L15" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M15" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N15" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O15" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P15" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R15" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S15" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8792052992837489</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.816934388177337</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I16" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J16" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K16" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L16" t="n">
         <v>130.7138496771494</v>
@@ -32171,25 +32171,25 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O16" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P16" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R16" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S16" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T16" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H17" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I17" t="n">
-        <v>75.56434172092611</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J17" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K17" t="n">
-        <v>249.3241069498282</v>
+        <v>249.3241069498283</v>
       </c>
       <c r="L17" t="n">
-        <v>309.3086014169002</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M17" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N17" t="n">
-        <v>349.7343727156253</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O17" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P17" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.6619883798886</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R17" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S17" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T17" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.048712461615641</v>
+        <v>1.048712461615642</v>
       </c>
       <c r="H18" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I18" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J18" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K18" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L18" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M18" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N18" t="n">
-        <v>272.7526327252014</v>
+        <v>272.7526327252015</v>
       </c>
       <c r="O18" t="n">
-        <v>249.5153723915074</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P18" t="n">
-        <v>200.2580840079903</v>
+        <v>200.2580840079904</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R18" t="n">
-        <v>65.11216494136414</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S18" t="n">
-        <v>19.47937401290455</v>
+        <v>19.47937401290456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.227047158880588</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0689942408957659</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8792052992837487</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H19" t="n">
-        <v>7.816934388177335</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I19" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J19" t="n">
-        <v>62.15981465936103</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K19" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L19" t="n">
-        <v>130.7138496771493</v>
+        <v>130.7138496771494</v>
       </c>
       <c r="M19" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N19" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O19" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P19" t="n">
-        <v>106.3358845606453</v>
+        <v>106.3358845606454</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R19" t="n">
-        <v>39.53226736597654</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S19" t="n">
-        <v>15.32215053388132</v>
+        <v>15.32215053388133</v>
       </c>
       <c r="T19" t="n">
-        <v>3.756604460576016</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04795665268820453</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H20" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I20" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J20" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K20" t="n">
         <v>249.3241069498283</v>
       </c>
       <c r="L20" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M20" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N20" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O20" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P20" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R20" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S20" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T20" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H21" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J21" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K21" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L21" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M21" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N21" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O21" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P21" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R21" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S21" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.227047158880588</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H22" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I22" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J22" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K22" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L22" t="n">
         <v>130.7138496771494</v>
       </c>
       <c r="M22" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N22" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O22" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P22" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R22" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S22" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T22" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H23" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I23" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092614</v>
       </c>
       <c r="J23" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K23" t="n">
         <v>249.3241069498283</v>
@@ -32718,13 +32718,13 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M23" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N23" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O23" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P23" t="n">
         <v>281.8558276349478</v>
@@ -32733,16 +32733,16 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R23" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S23" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T23" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,19 +32782,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H24" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I24" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J24" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237957</v>
       </c>
       <c r="K24" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L24" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M24" t="n">
         <v>265.719819769893</v>
@@ -32812,16 +32812,16 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R24" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S24" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576593</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.879205299283749</v>
       </c>
       <c r="H25" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177338</v>
       </c>
       <c r="I25" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J25" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K25" t="n">
         <v>102.1476702258755</v>
@@ -32876,28 +32876,28 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M25" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N25" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O25" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P25" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R25" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597656</v>
       </c>
       <c r="S25" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T25" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U25" t="n">
         <v>0.04795665268820454</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H26" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I26" t="n">
         <v>75.56434172092612</v>
       </c>
       <c r="J26" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K26" t="n">
         <v>249.3241069498283</v>
@@ -32961,7 +32961,7 @@
         <v>349.7343727156254</v>
       </c>
       <c r="O26" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P26" t="n">
         <v>281.8558276349478</v>
@@ -32973,13 +32973,13 @@
         <v>123.1221990954445</v>
       </c>
       <c r="S26" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T26" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,19 +33019,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H27" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I27" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J27" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K27" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L27" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M27" t="n">
         <v>265.719819769893</v>
@@ -33055,7 +33055,7 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U27" t="n">
         <v>0.06899424089576592</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H28" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I28" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J28" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K28" t="n">
         <v>102.1476702258755</v>
@@ -33113,7 +33113,7 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M28" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N28" t="n">
         <v>134.5423891167578</v>
@@ -33125,7 +33125,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R28" t="n">
         <v>39.53226736597655</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H29" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I29" t="n">
         <v>75.56434172092612</v>
       </c>
       <c r="J29" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K29" t="n">
         <v>249.3241069498283</v>
@@ -33198,7 +33198,7 @@
         <v>349.7343727156254</v>
       </c>
       <c r="O29" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P29" t="n">
         <v>281.8558276349478</v>
@@ -33210,13 +33210,13 @@
         <v>123.1221990954445</v>
       </c>
       <c r="S29" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T29" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,19 +33256,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H30" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I30" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J30" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K30" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L30" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M30" t="n">
         <v>265.719819769893</v>
@@ -33292,7 +33292,7 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U30" t="n">
         <v>0.06899424089576592</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H31" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I31" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J31" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K31" t="n">
         <v>102.1476702258755</v>
@@ -33350,7 +33350,7 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M31" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N31" t="n">
         <v>134.5423891167578</v>
@@ -33362,7 +33362,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R31" t="n">
         <v>39.53226736597655</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H32" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I32" t="n">
         <v>75.56434172092612</v>
       </c>
       <c r="J32" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K32" t="n">
         <v>249.3241069498283</v>
@@ -33435,7 +33435,7 @@
         <v>349.7343727156254</v>
       </c>
       <c r="O32" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P32" t="n">
         <v>281.8558276349478</v>
@@ -33447,13 +33447,13 @@
         <v>123.1221990954445</v>
       </c>
       <c r="S32" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T32" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,19 +33493,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H33" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I33" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J33" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K33" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L33" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M33" t="n">
         <v>265.719819769893</v>
@@ -33529,7 +33529,7 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U33" t="n">
         <v>0.06899424089576592</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H34" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I34" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J34" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K34" t="n">
         <v>102.1476702258755</v>
@@ -33587,7 +33587,7 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M34" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N34" t="n">
         <v>134.5423891167578</v>
@@ -33599,7 +33599,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R34" t="n">
         <v>39.53226736597655</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H35" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I35" t="n">
         <v>75.56434172092612</v>
       </c>
       <c r="J35" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K35" t="n">
         <v>249.3241069498283</v>
@@ -33672,7 +33672,7 @@
         <v>349.7343727156254</v>
       </c>
       <c r="O35" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P35" t="n">
         <v>281.8558276349478</v>
@@ -33684,13 +33684,13 @@
         <v>123.1221990954445</v>
       </c>
       <c r="S35" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T35" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,19 +33730,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H36" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I36" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J36" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K36" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L36" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M36" t="n">
         <v>265.719819769893</v>
@@ -33766,7 +33766,7 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U36" t="n">
         <v>0.06899424089576592</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H37" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I37" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J37" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K37" t="n">
         <v>102.1476702258755</v>
@@ -33824,7 +33824,7 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M37" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N37" t="n">
         <v>134.5423891167578</v>
@@ -33836,7 +33836,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R37" t="n">
         <v>39.53226736597655</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H38" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I38" t="n">
         <v>75.56434172092612</v>
       </c>
       <c r="J38" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K38" t="n">
         <v>249.3241069498283</v>
@@ -33909,7 +33909,7 @@
         <v>349.7343727156254</v>
       </c>
       <c r="O38" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P38" t="n">
         <v>281.8558276349478</v>
@@ -33921,13 +33921,13 @@
         <v>123.1221990954445</v>
       </c>
       <c r="S38" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T38" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,19 +33967,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H39" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I39" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J39" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K39" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L39" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M39" t="n">
         <v>265.719819769893</v>
@@ -34003,7 +34003,7 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U39" t="n">
         <v>0.06899424089576592</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H40" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I40" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J40" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K40" t="n">
         <v>102.1476702258755</v>
@@ -34061,7 +34061,7 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M40" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N40" t="n">
         <v>134.5423891167578</v>
@@ -34073,7 +34073,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R40" t="n">
         <v>39.53226736597655</v>
@@ -34122,31 +34122,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H41" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I41" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092614</v>
       </c>
       <c r="J41" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K41" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498285</v>
       </c>
       <c r="L41" t="n">
         <v>309.3086014169003</v>
       </c>
       <c r="M41" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N41" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O41" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P41" t="n">
         <v>281.8558276349478</v>
@@ -34155,16 +34155,16 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R41" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S41" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T41" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,19 +34204,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H42" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I42" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J42" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237957</v>
       </c>
       <c r="K42" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L42" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M42" t="n">
         <v>265.719819769893</v>
@@ -34234,16 +34234,16 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R42" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S42" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576593</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.879205299283749</v>
       </c>
       <c r="H43" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177338</v>
       </c>
       <c r="I43" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J43" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K43" t="n">
         <v>102.1476702258755</v>
@@ -34298,28 +34298,28 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M43" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N43" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O43" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P43" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R43" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597656</v>
       </c>
       <c r="S43" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T43" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U43" t="n">
         <v>0.04795665268820454</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.960037396301823</v>
+        <v>1.960037396301824</v>
       </c>
       <c r="H44" t="n">
-        <v>20.07323298487605</v>
+        <v>20.07323298487606</v>
       </c>
       <c r="I44" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092614</v>
       </c>
       <c r="J44" t="n">
-        <v>166.355723964372</v>
+        <v>166.3557239643721</v>
       </c>
       <c r="K44" t="n">
         <v>249.3241069498283</v>
@@ -34377,13 +34377,13 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M44" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N44" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O44" t="n">
-        <v>330.2442508561491</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P44" t="n">
         <v>281.8558276349478</v>
@@ -34392,16 +34392,16 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S44" t="n">
-        <v>44.66435216822784</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T44" t="n">
-        <v>8.580063702311236</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1568029917041458</v>
+        <v>0.1568029917041459</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,19 +34441,19 @@
         <v>1.048712461615642</v>
       </c>
       <c r="H45" t="n">
-        <v>10.12835456349843</v>
+        <v>10.12835456349844</v>
       </c>
       <c r="I45" t="n">
-        <v>36.10698606878415</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J45" t="n">
-        <v>99.08032954237954</v>
+        <v>99.08032954237957</v>
       </c>
       <c r="K45" t="n">
-        <v>169.3440644706275</v>
+        <v>169.3440644706276</v>
       </c>
       <c r="L45" t="n">
-        <v>227.703993036326</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M45" t="n">
         <v>265.719819769893</v>
@@ -34471,16 +34471,16 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R45" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S45" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.227047158880588</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576593</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8792052992837488</v>
+        <v>0.879205299283749</v>
       </c>
       <c r="H46" t="n">
-        <v>7.816934388177336</v>
+        <v>7.816934388177338</v>
       </c>
       <c r="I46" t="n">
-        <v>26.44010118209674</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J46" t="n">
-        <v>62.15981465936104</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K46" t="n">
         <v>102.1476702258755</v>
@@ -34535,28 +34535,28 @@
         <v>130.7138496771494</v>
       </c>
       <c r="M46" t="n">
-        <v>137.8194270504516</v>
+        <v>137.8194270504517</v>
       </c>
       <c r="N46" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O46" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P46" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.62145465184192</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R46" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597656</v>
       </c>
       <c r="S46" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T46" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U46" t="n">
         <v>0.04795665268820454</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J11" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K11" t="n">
-        <v>213.5595061550189</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L11" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M11" t="n">
-        <v>306.734153563951</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N11" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O11" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P11" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q11" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R11" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.93459931878416</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J12" t="n">
-        <v>78.46921520904623</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K12" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L12" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M12" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N12" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O12" t="n">
-        <v>515.6781720766467</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P12" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R12" t="n">
-        <v>41.43924554722001</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.52305867545918</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K13" t="n">
-        <v>81.18301577316353</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L13" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M13" t="n">
-        <v>250.0448417414011</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N13" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O13" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P13" t="n">
-        <v>399.870442057515</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.9044144909954</v>
+        <v>185.0916250377347</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J14" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K14" t="n">
-        <v>213.5595061550189</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L14" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M14" t="n">
-        <v>306.734153563951</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N14" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O14" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P14" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q14" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J15" t="n">
-        <v>78.46921520904623</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K15" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L15" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M15" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O15" t="n">
-        <v>385.4632163904669</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P15" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R15" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K16" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L16" t="n">
         <v>108.7950897814482</v>
       </c>
       <c r="M16" t="n">
-        <v>525.9268404631492</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O16" t="n">
-        <v>433.8747478203454</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P16" t="n">
-        <v>399.870442057515</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.00189188705698</v>
+        <v>163.2289692289312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.01643917696261</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J17" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K17" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L17" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M17" t="n">
-        <v>306.7341535639509</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N17" t="n">
-        <v>312.4547498811793</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O17" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P17" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q17" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R17" t="n">
-        <v>88.08954920064804</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.62884764647288</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J18" t="n">
-        <v>78.46921520904621</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5852717169669</v>
+        <v>146.9448306372942</v>
       </c>
       <c r="L18" t="n">
-        <v>205.1889063220964</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M18" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N18" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P18" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R18" t="n">
-        <v>41.43924554722</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K19" t="n">
-        <v>81.18301577316352</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L19" t="n">
-        <v>488.9858913886854</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M19" t="n">
-        <v>115.2439871589658</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N19" t="n">
-        <v>515.846945557198</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O19" t="n">
-        <v>237.9000374389727</v>
+        <v>225.32617765217</v>
       </c>
       <c r="P19" t="n">
-        <v>399.870442057515</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q19" t="n">
         <v>201.9044144909954</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J20" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K20" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L20" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M20" t="n">
-        <v>306.7341535639509</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N20" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O20" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P20" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q20" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R20" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.93459931878415</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J21" t="n">
-        <v>78.46921520904621</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K21" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L21" t="n">
-        <v>494.523595729458</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M21" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N21" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P21" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R21" t="n">
-        <v>41.43924554722001</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K22" t="n">
-        <v>330.9634290196504</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L22" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M22" t="n">
-        <v>115.2439871589658</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N22" t="n">
-        <v>322.1585821979739</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O22" t="n">
-        <v>483.2899844637744</v>
+        <v>464.3667995172924</v>
       </c>
       <c r="P22" t="n">
-        <v>399.870442057515</v>
+        <v>399.8704420575151</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696263</v>
       </c>
       <c r="J23" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K23" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L23" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M23" t="n">
-        <v>306.7341535639509</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N23" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O23" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P23" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q23" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R23" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.93459931878415</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J24" t="n">
-        <v>78.46921520904621</v>
+        <v>237.5889489302276</v>
       </c>
       <c r="K24" t="n">
         <v>146.9448306372942</v>
@@ -36445,22 +36445,22 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M24" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N24" t="n">
-        <v>525.9268404631493</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O24" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P24" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q24" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R24" t="n">
-        <v>56.25669900309203</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.52305867545917</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K25" t="n">
-        <v>217.3105680445265</v>
+        <v>81.18301577316355</v>
       </c>
       <c r="L25" t="n">
-        <v>488.9858913886855</v>
+        <v>301.7309718184953</v>
       </c>
       <c r="M25" t="n">
-        <v>115.2439871589658</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="N25" t="n">
         <v>515.846945557198</v>
       </c>
       <c r="O25" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P25" t="n">
-        <v>399.870442057515</v>
+        <v>83.9550839026589</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>270.9965589842773</v>
       </c>
       <c r="M26" t="n">
-        <v>306.7341535639509</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N26" t="n">
         <v>312.4547498811794</v>
       </c>
       <c r="O26" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001255</v>
       </c>
       <c r="P26" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q26" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R26" t="n">
-        <v>88.08954920064829</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.93459931878415</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J27" t="n">
-        <v>84.5001034108233</v>
+        <v>367.8039046164076</v>
       </c>
       <c r="K27" t="n">
         <v>146.9448306372942</v>
@@ -36682,13 +36682,13 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M27" t="n">
-        <v>525.9268404631493</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N27" t="n">
         <v>251.4096045116598</v>
       </c>
       <c r="O27" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P27" t="n">
         <v>178.4872428031617</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.52305867545917</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K28" t="n">
-        <v>208.6811721563835</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L28" t="n">
-        <v>488.9858913886855</v>
+        <v>108.7950897814482</v>
       </c>
       <c r="M28" t="n">
-        <v>525.9268404631493</v>
+        <v>402.9473643453401</v>
       </c>
       <c r="N28" t="n">
-        <v>113.7934881411574</v>
+        <v>515.846945557198</v>
       </c>
       <c r="O28" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P28" t="n">
         <v>399.870442057515</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>270.9965589842773</v>
       </c>
       <c r="M29" t="n">
-        <v>306.7341535639509</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N29" t="n">
         <v>312.4547498811794</v>
       </c>
       <c r="O29" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P29" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q29" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R29" t="n">
         <v>88.08954920064807</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.93459931878415</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J30" t="n">
-        <v>78.46921520904621</v>
+        <v>237.5889489302278</v>
       </c>
       <c r="K30" t="n">
         <v>146.9448306372942</v>
@@ -36919,13 +36919,13 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M30" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N30" t="n">
         <v>251.4096045116598</v>
       </c>
       <c r="O30" t="n">
-        <v>515.6781720766468</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P30" t="n">
         <v>178.4872428031617</v>
@@ -36934,7 +36934,7 @@
         <v>111.1201875130462</v>
       </c>
       <c r="R30" t="n">
-        <v>41.43924554722001</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K31" t="n">
-        <v>81.18301577316352</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L31" t="n">
-        <v>488.9858913886855</v>
+        <v>201.8567305690618</v>
       </c>
       <c r="M31" t="n">
-        <v>185.7693982890203</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N31" t="n">
         <v>515.846945557198</v>
       </c>
       <c r="O31" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P31" t="n">
-        <v>83.95508390265887</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q31" t="n">
         <v>201.9044144909954</v>
@@ -37077,19 +37077,19 @@
         <v>270.9965589842773</v>
       </c>
       <c r="M32" t="n">
-        <v>306.7341535639509</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N32" t="n">
         <v>312.4547498811794</v>
       </c>
       <c r="O32" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P32" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q32" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R32" t="n">
         <v>88.08954920064807</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.93459931878415</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J33" t="n">
-        <v>78.46921520904621</v>
+        <v>367.8039046164076</v>
       </c>
       <c r="K33" t="n">
         <v>146.9448306372942</v>
@@ -37156,13 +37156,13 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M33" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N33" t="n">
         <v>251.4096045116598</v>
       </c>
       <c r="O33" t="n">
-        <v>515.6781720766468</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P33" t="n">
         <v>178.4872428031617</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K34" t="n">
-        <v>81.18301577316352</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L34" t="n">
-        <v>234.9665484757406</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M34" t="n">
-        <v>525.9268404631493</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N34" t="n">
-        <v>113.7934881411574</v>
+        <v>476.38780249084</v>
       </c>
       <c r="O34" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P34" t="n">
         <v>399.870442057515</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>270.9965589842773</v>
       </c>
       <c r="M35" t="n">
-        <v>306.7341535639509</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N35" t="n">
         <v>312.4547498811794</v>
       </c>
       <c r="O35" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P35" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q35" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R35" t="n">
         <v>88.08954920064807</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.62884764647288</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J36" t="n">
-        <v>78.46921520904621</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K36" t="n">
         <v>146.9448306372942</v>
@@ -37393,19 +37393,19 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M36" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N36" t="n">
-        <v>517.0500455913326</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O36" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P36" t="n">
         <v>178.4872428031617</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1201875130462</v>
+        <v>400.4548769204075</v>
       </c>
       <c r="R36" t="n">
         <v>41.43924554722001</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K37" t="n">
-        <v>81.18301577316352</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L37" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M37" t="n">
-        <v>402.9473643453399</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N37" t="n">
-        <v>515.846945557198</v>
+        <v>228.717784737574</v>
       </c>
       <c r="O37" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P37" t="n">
-        <v>399.870442057515</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.00189188705697</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,19 +37551,19 @@
         <v>270.9965589842773</v>
       </c>
       <c r="M38" t="n">
-        <v>306.7341535639509</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N38" t="n">
         <v>312.4547498811794</v>
       </c>
       <c r="O38" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P38" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q38" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R38" t="n">
         <v>88.08954920064807</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.93459931878415</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J39" t="n">
-        <v>78.46921520904621</v>
+        <v>237.5889489302278</v>
       </c>
       <c r="K39" t="n">
         <v>146.9448306372942</v>
@@ -37630,22 +37630,22 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M39" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N39" t="n">
         <v>251.4096045116598</v>
       </c>
       <c r="O39" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P39" t="n">
-        <v>467.8219322105234</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q39" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R39" t="n">
-        <v>41.43924554722001</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K40" t="n">
-        <v>81.18301577316352</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L40" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M40" t="n">
-        <v>402.9473643453399</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N40" t="n">
-        <v>515.846945557198</v>
+        <v>381.6203073415126</v>
       </c>
       <c r="O40" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P40" t="n">
-        <v>399.870442057515</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.00189188705697</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696263</v>
       </c>
       <c r="J41" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K41" t="n">
-        <v>213.5595061550189</v>
+        <v>213.5595061550192</v>
       </c>
       <c r="L41" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M41" t="n">
-        <v>306.7341535639509</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N41" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O41" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P41" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R41" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.93459931878415</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J42" t="n">
-        <v>78.46921520904621</v>
+        <v>78.46921520904624</v>
       </c>
       <c r="K42" t="n">
         <v>146.9448306372942</v>
@@ -37867,22 +37867,22 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M42" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N42" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O42" t="n">
-        <v>226.3434826692852</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P42" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q42" t="n">
-        <v>400.4548769204077</v>
+        <v>400.4548769204072</v>
       </c>
       <c r="R42" t="n">
-        <v>41.43924554722001</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2318633706318</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K43" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316355</v>
       </c>
       <c r="L43" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M43" t="n">
-        <v>115.2439871589658</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="N43" t="n">
         <v>515.846945557198</v>
       </c>
       <c r="O43" t="n">
-        <v>289.6016211045504</v>
+        <v>296.0350648935841</v>
       </c>
       <c r="P43" t="n">
-        <v>399.870442057515</v>
+        <v>83.9550839026589</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696263</v>
       </c>
       <c r="J44" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K44" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L44" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M44" t="n">
-        <v>306.7341535639509</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N44" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O44" t="n">
-        <v>292.853291500125</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P44" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q44" t="n">
-        <v>175.5373137752906</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R44" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.93459931878415</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J45" t="n">
-        <v>78.46921520904621</v>
+        <v>367.8039046164074</v>
       </c>
       <c r="K45" t="n">
         <v>146.9448306372942</v>
@@ -38104,22 +38104,22 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M45" t="n">
-        <v>242.623039257565</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N45" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O45" t="n">
-        <v>515.6781720766464</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P45" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q45" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R45" t="n">
-        <v>41.43924554722001</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.52305867545917</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K46" t="n">
-        <v>237.8465261644023</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L46" t="n">
-        <v>488.9858913886855</v>
+        <v>231.0220845770808</v>
       </c>
       <c r="M46" t="n">
         <v>115.2439871589658</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7934881411574</v>
+        <v>515.846945557198</v>
       </c>
       <c r="O46" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P46" t="n">
-        <v>399.870442057515</v>
+        <v>83.9550839026589</v>
       </c>
       <c r="Q46" t="n">
         <v>201.9044144909954</v>
